--- a/Notebooks/mass_unbalanced_reactions.xlsx
+++ b/Notebooks/mass_unbalanced_reactions.xlsx
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2.0 aqcobal_c + h_c + nadh_c &lt;=&gt; 2.0 cbl2_c + 2.0 h2o_c + nad_c</t>
+          <t>2.0 aqcobal_c + h_c + nadh_c --&gt; 2.0 cbl2_c + 2.0 h2o_c + nad_c</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>dhdascb_c + 2.0 gthrd_c &lt;=&gt; ascb_L_c + gthox_c</t>
+          <t>dhdascb_c + 2.0 gthrd_c --&gt; ascb_L_c + gthox_c</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13_cis_retn_r + h_r + nadph_r + o2_r &lt;=&gt; h2o_r + nadp_r + oretn_r</t>
+          <t>13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>amet_c + cbl2_c &lt;=&gt; C06453_c + ahcys_c + 4.0 h_c</t>
+          <t>amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CE7047_c + h2o_c --&gt; CE7101_c + h_c</t>
+          <t>CE7047_c + h2o_c &lt;=&gt; CE7101_c + h_c</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>nadph_c + o2_c + retinol_c &lt;=&gt; h2o_c + h_c + nadp_c + oretn_c</t>
+          <t>nadph_c + o2_c + retinol_c --&gt; h2o_c + h_c + nadp_c + oretn_c</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ApoACP_c + coa_c &lt;=&gt; ACP_c + pap_c</t>
+          <t>ApoACP_c + coa_c --&gt; ACP_c + pap_c</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CN0016epox_c + h2o_c --&gt; CN0016diol_c + 2.0 h_c</t>
+          <t>CN0016epox_c + h2o_c &lt;=&gt; CN0016diol_c + 2.0 h_c</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CN0016_c + 3.0 h_c + nadph_c + o2_c &lt;=&gt; CN0016epox_c + h2o_c + nadp_c</t>
+          <t>CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>5fthf_c + glu_L_c --&gt; Nforglu_c + thf_m</t>
+          <t>5fthf_c + glu_L_c &lt;=&gt; Nforglu_c + thf_m</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>amet_c + ptrc_c --&gt; ahcys_c + nmptrc_c</t>
+          <t>amet_c + ptrc_c &lt;=&gt; ahcys_c + nmptrc_c</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>CN0020_c + 3.0 h_c + nadph_c + o2_c &lt;=&gt; CN0021_c + h2o_c + nadp_c</t>
+          <t>CN0020_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CN0022_c + nadph_c + o2_c &lt;=&gt; CN0023_c + h2o_c + h_c + nadp_c</t>
+          <t>CN0022_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + h_c + nadp_c</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CN0017_c + h2o_c --&gt; CN0016diol_c</t>
+          <t>CN0017_c + h2o_c &lt;=&gt; CN0016diol_c</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CN0016diol_c + nadph_c + o2_c &lt;=&gt; CN0019_c + h2o_c + h_c + nadp_c</t>
+          <t>CN0016diol_c + nadph_c + o2_c --&gt; CN0019_c + h2o_c + h_c + nadp_c</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ahdt_c + h2o_c + 4.0 h_c --&gt; HC01710_c</t>
+          <t>ahdt_c + h2o_c + 4.0 h_c &lt;=&gt; HC01710_c</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ahdt_n + h2o_n &lt;=&gt; HC01710_n</t>
+          <t>ahdt_n + h2o_n --&gt; HC01710_n</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>HC01652_c + 4.0 h_c --&gt; HC01710_c</t>
+          <t>HC01652_c + 4.0 h_c &lt;=&gt; HC01710_c</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>6.0 atp_c + 6.0 glu_L_c + 6.0 h2o_c + thf_c &lt;=&gt; HC02129_c + 6.0 adp_c + 6.0 pi_c</t>
+          <t>6.0 atp_c + 6.0 glu_L_c + 6.0 h2o_c + thf_c --&gt; HC02129_c + 6.0 adp_c + 6.0 pi_c</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>M00071_m + h2o_m &lt;=&gt; 3houndcoa_m</t>
+          <t>M00071_m + h2o_m --&gt; 3houndcoa_m</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2dodtricoa_m + h2o_m --&gt; 3hoc122_6Z_9Zcoa_m</t>
+          <t>2dodtricoa_m + h2o_m &lt;=&gt; 3hoc122_6Z_9Zcoa_m</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>h2o_m + td2coa_m --&gt; 3htdcoa_m</t>
+          <t>h2o_m + td2coa_m &lt;=&gt; 3htdcoa_m</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>c143_2Z_5E_8Ecoa_m + h2o_m &lt;=&gt; 3ttetddcoa_m</t>
+          <t>c143_2Z_5E_8Ecoa_m + h2o_m --&gt; 3ttetddcoa_m</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>3hpalmACP_c &lt;=&gt; h2o_c + tpalm2eACP_c</t>
+          <t>3hpalmACP_c --&gt; h2o_c + tpalm2eACP_c</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>h2o_m + hdd2coa_m --&gt; 3hhdcoa_m</t>
+          <t>h2o_m + hdd2coa_m &lt;=&gt; 3hhdcoa_m</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>c163_2Z_7E_10Ecoa_m + h2o_m &lt;=&gt; 3thexddcoa_m</t>
+          <t>c163_2Z_7E_10Ecoa_m + h2o_m --&gt; 3thexddcoa_m</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2hexdtetcoa_m + h2o_m --&gt; 3hoc163_7Z_10Z_13Zcoa_m</t>
+          <t>2hexdtetcoa_m + h2o_m &lt;=&gt; 3hoc163_7Z_10Z_13Zcoa_m</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>h2o_m + lnlncacoa_m --&gt; 3hoc183_9Z_12Z_15Zcoa_m</t>
+          <t>h2o_m + lnlncacoa_m &lt;=&gt; 3hoc183_9Z_12Z_15Zcoa_m</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>h2o_m + hx2coa_m --&gt; 3hhcoa_m</t>
+          <t>h2o_m + hx2coa_m &lt;=&gt; 3hhcoa_m</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>M00056_m + h2o_m &lt;=&gt; 3honncoa_m</t>
+          <t>M00056_m + h2o_m --&gt; 3honncoa_m</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CE4799_m + h2o_m --&gt; 3hodmhptcoa_m</t>
+          <t>CE4799_m + h2o_m &lt;=&gt; 3hodmhptcoa_m</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CE4807_m + h2o_m --&gt; 3homptcoa_m</t>
+          <t>CE4807_m + h2o_m &lt;=&gt; 3homptcoa_m</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CE2038_x + h2o_x --&gt; 3hopristcoa_x</t>
+          <t>CE2038_x + h2o_x &lt;=&gt; 3hopristcoa_x</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>3ttetddcoa_m + nad_m &lt;=&gt; 3oc142_5E_8Ecoa_m + h_m + nadh_m</t>
+          <t>3ttetddcoa_m + nad_m --&gt; 3oc142_5E_8Ecoa_m + h_m + nadh_m</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>3thexddcoa_m + nad_m &lt;=&gt; 3oc162_7E_10Ecoa_m + h_m + nadh_m</t>
+          <t>3thexddcoa_m + nad_m --&gt; 3oc162_7E_10Ecoa_m + h_m + nadh_m</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>3oc142_5E_8Ecoa_m + coa_m &lt;=&gt; accoa_m + tddedicoa_m</t>
+          <t>3oc142_5E_8Ecoa_m + coa_m --&gt; accoa_m + tddedicoa_m</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>CE0853_m + coa_m --&gt; accoa_m + c141_7Zcoa_m</t>
+          <t>CE0853_m + coa_m &lt;=&gt; accoa_m + c141_7Zcoa_m</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>3oc162_7E_10Ecoa_m + coa_m &lt;=&gt; accoa_m + ttetddcoa_m</t>
+          <t>3oc162_7E_10Ecoa_m + coa_m --&gt; accoa_m + ttetddcoa_m</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>c141_7Zcoa_m + fad_m --&gt; CE2594_m + fadh2_m</t>
+          <t>c141_7Zcoa_m + fad_m &lt;=&gt; CE2594_m + fadh2_m</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>fad_m + ttetddcoa_m &lt;=&gt; c143_2Z_5E_8Ecoa_m + fadh2_m</t>
+          <t>fad_m + ttetddcoa_m --&gt; c143_2Z_5E_8Ecoa_m + fadh2_m</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>fad_m + hdcoa_m --&gt; CE2591_m + fadh2_m</t>
+          <t>fad_m + hdcoa_m &lt;=&gt; CE2591_m + fadh2_m</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>fad_m + thexddcoa_m &lt;=&gt; c163_2Z_7E_10Ecoa_m + fadh2_m</t>
+          <t>fad_m + thexddcoa_m --&gt; c163_2Z_7E_10Ecoa_m + fadh2_m</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>h_m + nadph_m + oc2coa_m --&gt; nadp_m + occoa_m</t>
+          <t>h_m + nadph_m + oc2coa_m &lt;=&gt; nadp_m + occoa_m</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -10165,7 +10165,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>5apade_c + coa_c &lt;=&gt; accoa_c + amp_c + h_c</t>
+          <t>5apade_c + coa_c --&gt; accoa_c + amp_c + h_c</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>adrncoa_c + crn_c --&gt; coa_c + dcsptn1crn_c</t>
+          <t>adrncoa_c + crn_c &lt;=&gt; coa_c + dcsptn1crn_c</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>coa_m + dcsptn1crn_m &lt;=&gt; adrncoa_m + crn_m</t>
+          <t>coa_m + dcsptn1crn_m --&gt; adrncoa_m + crn_m</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>h_c + lnlc_c + nadph_c + o2_c &lt;=&gt; CE2725_c + h2o_c + nadp_c</t>
+          <t>h_c + lnlc_c + nadph_c + o2_c --&gt; CE2725_c + h2o_c + nadp_c</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>crn_c + hdcoa_c --&gt; coa_c + pmtcrn_c</t>
+          <t>crn_c + hdcoa_c &lt;=&gt; coa_c + pmtcrn_c</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>coa_m + pmtcrn_m &lt;=&gt; crn_m + hdcoa_m</t>
+          <t>coa_m + pmtcrn_m --&gt; crn_m + hdcoa_m</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>crn_x + dmnoncoa_x --&gt; coa_x + dmnoncrn_x</t>
+          <t>crn_x + dmnoncoa_x &lt;=&gt; coa_x + dmnoncrn_x</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>atp_x + coa_x + dca_x --&gt; amp_x + dcacoa_x + ppi_x</t>
+          <t>atp_x + coa_x + dca_x &lt;=&gt; amp_x + dcacoa_x + ppi_x</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>coa_m + dmnoncrn_m &lt;=&gt; crn_m + dmnoncoa_m</t>
+          <t>coa_m + dmnoncrn_m --&gt; crn_m + dmnoncoa_m</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>atp_x + coa_x + hdcea_x &lt;=&gt; amp_x + hdcoa_x + ppi_x</t>
+          <t>atp_x + coa_x + hdcea_x --&gt; amp_x + hdcoa_x + ppi_x</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>atp_x + coa_x + strdnc_x &lt;=&gt; amp_x + ppi_x + strdnccoa_x</t>
+          <t>atp_x + coa_x + strdnc_x --&gt; amp_x + ppi_x + strdnccoa_x</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>3.0 h_c + malcoa_c + 2.0 nadph_c + ocACP_c &lt;=&gt; co2_c + coa_c + dcaACP_c + h2o_c + 2.0 nadp_c</t>
+          <t>3.0 h_c + malcoa_c + 2.0 nadph_c + ocACP_c --&gt; co2_c + coa_c + dcaACP_c + h2o_c + 2.0 nadp_c</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>leuktrB4_c + nadp_c --&gt; CE2084_c + h_c + nadph_c</t>
+          <t>leuktrB4_c + nadp_c &lt;=&gt; CE2084_c + h_c + nadph_c</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>M00377_c + gthox_c + h2o_c --&gt; 15HPET_c + 2.0 gthrd_c</t>
+          <t>M00377_c + gthox_c + h2o_c &lt;=&gt; 15HPET_c + 2.0 gthrd_c</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>arachd_c + h_c + nadph_c + o2_c &lt;=&gt; CE2565_c + h2o_c + nadp_c</t>
+          <t>arachd_c + h_c + nadph_c + o2_c --&gt; CE2565_c + h2o_c + nadp_c</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>CE2567_n + h2o_n --&gt; C06314_n</t>
+          <t>CE2567_n + h2o_n &lt;=&gt; C06314_n</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>arachd_c + o2_c &lt;=&gt; M01203_c</t>
+          <t>arachd_c + o2_c --&gt; M01203_c</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>CE0347_c + h_c + nadh_c --&gt; M00321_c + nad_c</t>
+          <t>CE0347_c + h_c + nadh_c &lt;=&gt; M00321_c + nad_c</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>CE0347_r + 2.0 h_r + o2_r &lt;=&gt; h2o_r + leuktrB4_r</t>
+          <t>CE0347_r + 2.0 h_r + o2_r --&gt; h2o_r + leuktrB4_r</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>h2o_x + hx2coa_x --&gt; 3hhcoa_x</t>
+          <t>h2o_x + hx2coa_x &lt;=&gt; 3hhcoa_x</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>3ddecdicoa_m + fad_m + 2.0 h_m &lt;=&gt; C05279_m + fadh2_m</t>
+          <t>3ddecdicoa_m + fad_m + 2.0 h_m --&gt; C05279_m + fadh2_m</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>dd2coa_x --&gt; dd5ecoa_x</t>
+          <t>dd2coa_x &lt;=&gt; dd5ecoa_x</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>coa_m + lnlncacrn_m &lt;=&gt; crn_m + lnlncacoa_m</t>
+          <t>coa_m + lnlncacrn_m --&gt; crn_m + lnlncacoa_m</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>h2o_c + pa180_c --&gt; 2odecg3p_c + ocdca_c</t>
+          <t>h2o_c + pa180_c &lt;=&gt; 2odecg3p_c + ocdca_c</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -14169,7 +14169,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>CE4795_m --&gt; CE5115_m</t>
+          <t>CE4795_m &lt;=&gt; CE5115_m</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>CE5123_x --&gt; formcoa_x + pristanal_x</t>
+          <t>CE5123_x &lt;=&gt; formcoa_x + pristanal_x</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>o2_x + tmtrdcoa_x &lt;=&gt; CE5938_x + h2o2_x</t>
+          <t>o2_x + tmtrdcoa_x --&gt; CE5938_x + h2o2_x</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>3ktmthdcoa_x + coa_x --&gt; dmnoncoa_x + ppcoa_x</t>
+          <t>3ktmthdcoa_x + coa_x &lt;=&gt; dmnoncoa_x + ppcoa_x</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>h_c + malcoa_c + strdnccoa_c &lt;=&gt; 3oecstcoa_c + co2_c + coa_c</t>
+          <t>h_c + malcoa_c + strdnccoa_c --&gt; 3oecstcoa_c + co2_c + coa_c</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>3oecstcoa_c + h_c + nadph_c --&gt; CE4810_c + nadp_c</t>
+          <t>3oecstcoa_c + h_c + nadph_c &lt;=&gt; CE4810_c + nadp_c</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>o2_x + tethex3coa_x &lt;=&gt; CE4828_x + h2o2_x</t>
+          <t>o2_x + tethex3coa_x --&gt; CE4828_x + h2o2_x</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>adrncoa_c + malcoa_c &lt;=&gt; CE4820_c + co2_c + coa_c + h_c</t>
+          <t>adrncoa_c + malcoa_c --&gt; CE4820_c + co2_c + coa_c + h_c</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -14543,7 +14543,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>CE4832_x + nad_x &lt;=&gt; CE4820_x + h_x + nadh_x</t>
+          <t>CE4832_x + nad_x --&gt; CE4820_x + h_x + nadh_x</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -14565,7 +14565,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>CE4820_x + coa_x + 2.0 h_x --&gt; accoa_x + adrncoa_x</t>
+          <t>CE4820_x + coa_x + 2.0 h_x &lt;=&gt; accoa_x + adrncoa_x</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -14873,7 +14873,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>cholcoads_m + h2o_m --&gt; CE5168_m</t>
+          <t>cholcoads_m + h2o_m &lt;=&gt; CE5168_m</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>CE5307_m + coa_m --&gt; CE5316_m + accoa_m</t>
+          <t>CE5307_m + coa_m &lt;=&gt; CE5316_m + accoa_m</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -14939,7 +14939,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>CE5319_m + coa_m --&gt; CE5328_m + accoa_m</t>
+          <t>CE5319_m + coa_m &lt;=&gt; CE5328_m + accoa_m</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>h_r + nadph_r + od2coa_r --&gt; nadp_r + stcoa_r</t>
+          <t>h_r + nadph_r + od2coa_r &lt;=&gt; nadp_r + stcoa_r</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>crn_c + malcoa_c --&gt; coa_c + malcrn_c</t>
+          <t>crn_c + malcoa_c &lt;=&gt; coa_c + malcrn_c</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>h2o_x + hdd2coa_x --&gt; 3hhdcoa_x</t>
+          <t>h2o_x + hdd2coa_x &lt;=&gt; 3hhdcoa_x</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>3oocoa_m + coa_m &lt;=&gt; accoa_m + hxcoa_m</t>
+          <t>3oocoa_m + coa_m --&gt; accoa_m + hxcoa_m</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>3hhexACP_c + nadp_c &lt;=&gt; 3ohexACP_c + h_c + nadph_c</t>
+          <t>3hhexACP_c + nadp_c --&gt; 3ohexACP_c + h_c + nadph_c</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>CE5944_m + h_m + nadph_m &lt;=&gt; CE4987_m + nadp_m</t>
+          <t>CE5944_m + h_m + nadph_m --&gt; CE4987_m + nadp_m</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>CE4987_m + atp_m + coa_m --&gt; CE5969_m + amp_m + ppi_m</t>
+          <t>CE4987_m + atp_m + coa_m &lt;=&gt; CE5969_m + amp_m + ppi_m</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -16039,7 +16039,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>CE6195_x + h2o_x &lt;=&gt; CE6197_x + coa_x</t>
+          <t>CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -16105,7 +16105,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>h2o_c + prostga2_c --&gt; prostge2_c</t>
+          <t>h2o_c + prostga2_c &lt;=&gt; prostge2_c</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>CE6232_r + 2.0 h_r --&gt; CE6234_r + h2o_r</t>
+          <t>CE6232_r + 2.0 h_r &lt;=&gt; CE6234_r + h2o_r</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>prostgh2_c --&gt; CE0737_c + CE1243_c + h_c</t>
+          <t>prostgh2_c &lt;=&gt; CE0737_c + CE1243_c + h_c</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>paps_c + tre_c --&gt; h_c + pap_c + tres_c</t>
+          <t>paps_c + tre_c &lt;=&gt; h_c + pap_c + tres_c</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>didp_c + h2o_c --&gt; dimp_c + pi_c</t>
+          <t>didp_c + h2o_c &lt;=&gt; dimp_c + pi_c</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>3sala_c + h_c --&gt; co2_c + hyptaur_c</t>
+          <t>3sala_c + h_c &lt;=&gt; co2_c + hyptaur_c</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>17ahprgstrn_c + focytC_m + o2_c --&gt; 11docrtsl_c + ficytC_m + h2o_c</t>
+          <t>17ahprgstrn_c + focytC_m + o2_c &lt;=&gt; 11docrtsl_c + ficytC_m + h2o_c</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>iodine_c + tyr_L_c &lt;=&gt; 3ityr_L_c + M02146_c + h_c</t>
+          <t>iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>leuktrB4_c + nadp_c &lt;=&gt; CE4990_c + nadph_c</t>
+          <t>leuktrB4_c + nadp_c --&gt; CE4990_c + nadph_c</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>h2o_g + prgnlones_g --&gt; h_g + prgnlone_g + so4_g</t>
+          <t>h2o_g + prgnlones_g &lt;=&gt; h_g + prgnlone_g + so4_g</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>amet_c + pe_cho_c --&gt; C01241_c + ahcys_c</t>
+          <t>amet_c + pe_cho_c &lt;=&gt; C01241_c + ahcys_c</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>M01570_e &lt;=&gt; M01569_e + 77243.0 M02956_e</t>
+          <t>M01570_e --&gt; M01569_e + 77243.0 M02956_e</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>cdpdag_cho_c + ppi_c --&gt; HC02053_c + ctp_c + h_c</t>
+          <t>cdpdag_cho_c + ppi_c &lt;=&gt; HC02053_c + ctp_c + h_c</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>cdpdag_cho_r + inost_r &lt;=&gt; cmp_r + h_r + pail_cho_r</t>
+          <t>cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>M00512_c + cdpea_c --&gt; cmp_c + dak2gpe_cho_c</t>
+          <t>M00512_c + cdpea_c &lt;=&gt; cmp_c + dak2gpe_cho_c</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>dak2gpe_cho_c + h2o_c &lt;=&gt; M00627_c + etha_c</t>
+          <t>dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -19867,7 +19867,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>C03820_c + cdpchol_c --&gt; cmp_c + paf_cho_c</t>
+          <t>C03820_c + cdpchol_c &lt;=&gt; cmp_c + paf_cho_c</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -19889,7 +19889,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>HC02043_c + ak2lgchol_cho_c &lt;=&gt; ak2gchol_cho_c + coa_c</t>
+          <t>HC02043_c + ak2lgchol_cho_c --&gt; ak2gchol_cho_c + coa_c</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -20153,7 +20153,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>C04308_c + amet_c &lt;=&gt; ahcys_c + pchol_cho_c</t>
+          <t>C04308_c + amet_c --&gt; ahcys_c + pchol_cho_c</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>acnam_c + galside_cho_c --&gt; HC02154_c + h2o_c</t>
+          <t>acnam_c + galside_cho_c &lt;=&gt; HC02154_c + h2o_c</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -22089,7 +22089,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>alatrna_c + h2o_c &lt;=&gt; ala_L_c + h_c + trnaala_c</t>
+          <t>alatrna_c + h2o_c --&gt; ala_L_c + h_c + trnaala_c</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>argtrna_c + h2o_c &lt;=&gt; arg_L_c + h_c + trnaarg_c</t>
+          <t>argtrna_c + h2o_c --&gt; arg_L_c + h_c + trnaarg_c</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -22221,7 +22221,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Rh3cit_c --&gt; HC00342_c + h2o_c</t>
+          <t>Rh3cit_c &lt;=&gt; HC00342_c + h2o_c</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -22243,7 +22243,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>cystrna_c + h2o_c &lt;=&gt; cys_L_c + h_c + trnacys_c</t>
+          <t>cystrna_c + h2o_c --&gt; cys_L_c + h_c + trnacys_c</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -22287,7 +22287,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>lys_L_c + spmd_c --&gt; 13dampp_c + dohps_c + 2.0 h_c</t>
+          <t>lys_L_c + spmd_c &lt;=&gt; 13dampp_c + dohps_c + 2.0 h_c</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -22485,7 +22485,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>glntrna_c + h2o_c &lt;=&gt; gln_L_c + h_c + trnagln_c</t>
+          <t>glntrna_c + h2o_c --&gt; gln_L_c + h_c + trnagln_c</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>h2o_m + histrna_m &lt;=&gt; h_m + his_L_m + trnahis_m</t>
+          <t>h2o_m + histrna_m --&gt; h_m + his_L_m + trnahis_m</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -22705,7 +22705,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>M00136_c + nad_c --&gt; M00137_c + h_c + ncam_c</t>
+          <t>M00136_c + nad_c &lt;=&gt; M00137_c + h_c + ncam_c</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -22727,7 +22727,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2.0 M00193_c + 4.0 atp_c &lt;=&gt; M00192_c + 4.0 adp_c</t>
+          <t>2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -22793,7 +22793,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>M00190_c + atp_c + h_c &lt;=&gt; M00191_c + adp_c</t>
+          <t>M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -22815,7 +22815,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>M00201_c + M01310_c &lt;=&gt; M00207_c + nh4_c</t>
+          <t>M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -22859,7 +22859,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>M00200_c + M01719_c --&gt; M00216_c + M01720_c</t>
+          <t>M00200_c + M01719_c &lt;=&gt; M00216_c + M01720_c</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -22881,7 +22881,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>M02918_c + h2o_c &lt;=&gt; M00200_c + hdca_c</t>
+          <t>M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>M02669_c + h2o_c &lt;=&gt; CE5799_c + CE5800_c + h_c</t>
+          <t>M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -23013,7 +23013,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>dmlarg_c + h2o_c &lt;=&gt; citr_L_c + dma_c</t>
+          <t>dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -23123,7 +23123,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>M03060_c + ppi_c --&gt; M03083_c + dmpp_c</t>
+          <t>M03060_c + ppi_c &lt;=&gt; M03083_c + dmpp_c</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -23189,7 +23189,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>dttOX_c + h2o_c + phyQ_c &lt;=&gt; M03144_c + dtt_c</t>
+          <t>dttOX_c + h2o_c + phyQ_c --&gt; M03144_c + dtt_c</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -23211,7 +23211,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>M02339_c + trnaarg_c --&gt; M00196_c + argtrna_c</t>
+          <t>M02339_c + trnaarg_c &lt;=&gt; M00196_c + argtrna_c</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -23343,7 +23343,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>M03169_c + gthrd_c &lt;=&gt; M03170_c + gthox_c</t>
+          <t>M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -23409,7 +23409,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>h2o_c + indole_c + nadp_c &lt;=&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
+          <t>h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>h2o_e + lido_e --&gt; 26dmani_e + degly_e + h_e</t>
+          <t>h2o_e + lido_e &lt;=&gt; 26dmani_e + degly_e + h_e</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>ApoACP_m + lipACP_m &lt;=&gt; ACP_m + CE2102_m</t>
+          <t>ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -23607,7 +23607,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2.0 h_c + hmppp9_c + nadph_c + o2_c --&gt; 2.0 h2o_c + nadp_c + omppp9_c</t>
+          <t>2.0 h_c + hmppp9_c + nadph_c + o2_c &lt;=&gt; 2.0 h2o_c + nadp_c + omppp9_c</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -23673,7 +23673,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2.0 CE1950_c + 3.0 h2o2_c &lt;=&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
+          <t>2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -23739,7 +23739,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>atp_c + h_c + lipoate_c &lt;=&gt; lipamp_c + ppi_c</t>
+          <t>atp_c + h_c + lipoate_c --&gt; lipamp_c + ppi_c</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -23783,7 +23783,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>CE2615_c + udpglcur_c &lt;=&gt; CE2616_c + h_c + udp_c</t>
+          <t>CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>CE6444_c + 2.0 h_c --&gt; CE6453_c + h2o_c</t>
+          <t>CE6444_c + 2.0 h_c &lt;=&gt; CE6453_c + h2o_c</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -23959,7 +23959,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>3h3mglt_m + succoa_m --&gt; h_m + hmgcoa_m + succ_m</t>
+          <t>3h3mglt_m + succoa_m &lt;=&gt; h_m + hmgcoa_m + succ_m</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>h2o_c + thrtrna_c &lt;=&gt; h_c + thr_L_c + trnathr_c</t>
+          <t>h2o_c + thrtrna_c --&gt; h_c + thr_L_c + trnathr_c</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>nad_c + udpglcur_c --&gt; co2_c + nadh_c + udpLa4o_c</t>
+          <t>nad_c + udpglcur_c &lt;=&gt; co2_c + nadh_c + udpLa4o_c</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>h2o_c + valtrna_c &lt;=&gt; h_c + trnaval_c + val_L_c</t>
+          <t>h2o_c + valtrna_c --&gt; h_c + trnaval_c + val_L_c</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -24113,7 +24113,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>atp_c + h_c + ppa_c &lt;=&gt; ppad_c + ppi_c</t>
+          <t>atp_c + h_c + ppa_c --&gt; ppad_c + ppi_c</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>HC01441_e + h2o_e --&gt; lcts_e + pi_e</t>
+          <t>HC01441_e + h2o_e &lt;=&gt; lcts_e + pi_e</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -24223,7 +24223,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>coa_m + malcrn_m &lt;=&gt; crn_m + malcoa_m</t>
+          <t>coa_m + malcrn_m --&gt; crn_m + malcoa_m</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>4mzym_int2_r + 3.0 h_r + nadp_r --&gt; HC02110_r + nadph_r</t>
+          <t>4mzym_int2_r + 3.0 h_r + nadp_r &lt;=&gt; HC02110_r + nadph_r</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -24575,7 +24575,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>nadh_r --&gt; HC02112_r + nad_r</t>
+          <t>nadh_r &lt;=&gt; HC02112_r + nad_r</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -24817,7 +24817,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>pro_L_m + q10h2_m --&gt; 1pyr5c_m + 5.0 h_m + q10_m</t>
+          <t>pro_L_m + q10h2_m &lt;=&gt; 1pyr5c_m + 5.0 h_m + q10_m</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -25587,7 +25587,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Rtotalcoa_c --&gt; pmtcoa_c</t>
+          <t>Rtotalcoa_c &lt;=&gt; pmtcoa_c</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -25741,7 +25741,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2.0 fdxrd_c + h_c + nadp_c --&gt; 2.0 fdxo_2_2_c + nadph_c</t>
+          <t>2.0 fdxrd_c + h_c + nadp_c &lt;=&gt; 2.0 fdxo_2_2_c + nadph_c</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -25785,7 +25785,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>lnlc_c + o2_c &lt;=&gt; C04717_c + h_c</t>
+          <t>lnlc_c + o2_c --&gt; C04717_c + h_c</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>h_c + lipoate_c + nadh_c --&gt; dhlam_c + nad_c</t>
+          <t>h_c + lipoate_c + nadh_c &lt;=&gt; dhlam_c + nad_c</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>HC00004_c + lipamp_c &lt;=&gt; M00209_c + amp_c</t>
+          <t>HC00004_c + lipamp_c --&gt; M00209_c + amp_c</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>alltt_c + h2o_c &lt;=&gt; M03122_c + urea_c</t>
+          <t>alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -26093,7 +26093,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>M02807_c + h2o_c --&gt; r5p_c + ura_c</t>
+          <t>M02807_c + h2o_c &lt;=&gt; r5p_c + ura_c</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -26225,7 +26225,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>CE2049_c + udpglcur_c &lt;=&gt; CE2305_c + h_c + udp_c</t>
+          <t>CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>atp_r + bilglcur_r + coa_r &lt;=&gt; amp_r + dcholcoa_r + ppi_r</t>
+          <t>atp_r + bilglcur_r + coa_r --&gt; amp_r + dcholcoa_r + ppi_r</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -26731,7 +26731,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>taur_c + urscholcoa_c &lt;=&gt; HC02195_c + coa_c + h_c</t>
+          <t>taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -26819,7 +26819,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>dhcholestancoa_x --&gt; M00617_x</t>
+          <t>dhcholestancoa_x &lt;=&gt; M00617_x</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -26841,7 +26841,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>M00617_x + o2_x &lt;=&gt; dhcholoylcoa_x + h2o2_x</t>
+          <t>M00617_x + o2_x --&gt; dhcholoylcoa_x + h2o2_x</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>dcholcoa_x + 4.0 h_x + ppcoa_x &lt;=&gt; coa_x + dhcholestancoa_x + h2o_x</t>
+          <t>dcholcoa_x + 4.0 h_x + ppcoa_x --&gt; coa_x + dhcholestancoa_x + h2o_x</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -27149,7 +27149,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>gluside_cho_c + udpgal_c --&gt; lside_c + udp_c</t>
+          <t>gluside_cho_c + udpgal_c &lt;=&gt; lside_c + udp_c</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -27589,7 +27589,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ala_L_c + atp_c + trnaala_c &lt;=&gt; alatrna_c + amp_c + ppi_c</t>
+          <t>ala_L_c + atp_c + trnaala_c --&gt; alatrna_c + amp_c + ppi_c</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -27787,7 +27787,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>dmarg_c + h2o_c --&gt; citr_L_c + dma_c + h_c</t>
+          <t>dmarg_c + h2o_c &lt;=&gt; citr_L_c + dma_c + h_c</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>10fthf_m + mettrna_m &lt;=&gt; fmettrna_m + h_m + thf_m</t>
+          <t>10fthf_m + mettrna_m --&gt; fmettrna_m + h_m + thf_m</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>atp_c + his_L_c + trnahis_c &lt;=&gt; amp_c + histrna_c + ppi_c</t>
+          <t>atp_c + his_L_c + trnahis_c --&gt; amp_c + histrna_c + ppi_c</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Nmelys_n + ahcys_n --&gt; M02127_n + amet_n</t>
+          <t>Nmelys_n + ahcys_n &lt;=&gt; M02127_n + amet_n</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>atp_c + trnatyr_c + tyr_L_c &lt;=&gt; amp_c + ppi_c + tyrtrna_c</t>
+          <t>atp_c + trnatyr_c + tyr_L_c --&gt; amp_c + ppi_c + tyrtrna_c</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -28271,7 +28271,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>4.0 h_c + 3.0 nadph_c + selni_c --&gt; 3.0 h2o_c + 3.0 nadp_c + seln_c</t>
+          <t>4.0 h_c + 3.0 nadph_c + selni_c &lt;=&gt; 3.0 h2o_c + 3.0 nadp_c + seln_c</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -28315,7 +28315,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>gtp_c + pcollg5hlys_c &lt;=&gt; gdp_c + h_c + pholys_c</t>
+          <t>gtp_c + pcollg5hlys_c --&gt; gdp_c + h_c + pholys_c</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -28337,7 +28337,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>atp_c + ile_L_c + trnaile_c &lt;=&gt; amp_c + iletrna_c + ppi_c</t>
+          <t>atp_c + ile_L_c + trnaile_c --&gt; amp_c + iletrna_c + ppi_c</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
@@ -28381,7 +28381,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>atp_c + leu_L_c + trnaleu_c &lt;=&gt; amp_c + leutrna_c + ppi_c</t>
+          <t>atp_c + leu_L_c + trnaleu_c --&gt; amp_c + leutrna_c + ppi_c</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -28491,7 +28491,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>h_c + mmcoa_S_c &lt;=&gt; co2_c + ppcoa_c</t>
+          <t>h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -28513,7 +28513,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>2.0 nwharg_c + o2_c --&gt; 2.0 citr_L_c + 2.0 no_c</t>
+          <t>2.0 nwharg_c + o2_c &lt;=&gt; 2.0 citr_L_c + 2.0 no_c</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -28623,7 +28623,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>4mop_c + o2_c &lt;=&gt; CE2028_c + co2_c</t>
+          <t>4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>h2o_c + nad_c + thp2c_c --&gt; L2aadp6sa_c + 2.0 h_c + nadh_c</t>
+          <t>h2o_c + nad_c + thp2c_c &lt;=&gt; L2aadp6sa_c + 2.0 h_c + nadh_c</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -28711,7 +28711,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>atp_c + thr_L_c + trnathr_c &lt;=&gt; amp_c + ppi_c + thrtrna_c</t>
+          <t>atp_c + thr_L_c + trnathr_c --&gt; amp_c + ppi_c + thrtrna_c</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -28799,7 +28799,7 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>atp_c + trnaval_c + val_L_c &lt;=&gt; amp_c + ppi_c + valtrna_c</t>
+          <t>atp_c + trnaval_c + val_L_c --&gt; amp_c + ppi_c + valtrna_c</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
@@ -28865,7 +28865,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>2hog_m + fad_m &lt;=&gt; akg_m + fadh2_m</t>
+          <t>2hog_m + fad_m --&gt; akg_m + fadh2_m</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>M02645_c + dolp_c --&gt; Ser_Gly_Ala_X_Gly_c + dolmanp_c</t>
+          <t>M02645_c + dolp_c &lt;=&gt; Ser_Gly_Ala_X_Gly_c + dolmanp_c</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>em3gacpail_cho_r + pe_cho_r &lt;=&gt; HC02057_r + emem2gacpail_cho_r</t>
+          <t>em3gacpail_cho_r + pe_cho_r --&gt; HC02057_r + emem2gacpail_cho_r</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -29217,7 +29217,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>atp_n + ppmi1346p_n &lt;=&gt; adp_n + ppmi12346p_n</t>
+          <t>atp_n + ppmi1346p_n --&gt; adp_n + ppmi12346p_n</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -29349,7 +29349,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>pi_c + ppcoa_c --&gt; coa_c + ppap_c</t>
+          <t>pi_c + ppcoa_c &lt;=&gt; coa_c + ppap_c</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
@@ -29371,7 +29371,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>ak2g_cho_c + cdpea_c + h_c --&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
+          <t>ak2g_cho_c + cdpea_c + h_c &lt;=&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>12dgr160_c + atp_c --&gt; adp_c + h_c + pa160_c</t>
+          <t>12dgr160_c + atp_c &lt;=&gt; adp_c + h_c + pa160_c</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>h2o_e + hdl_e &lt;=&gt; HC00004_e + HC00006_e + HC00007_e + HC00008_e + HC00009_e + Rtotal2_e + Rtotal3_e + Rtotal_e + 2.0 chsterol_e + glyc_e + 2.0 pchol_cho_e</t>
+          <t>h2o_e + hdl_e --&gt; HC00004_e + HC00006_e + HC00007_e + HC00008_e + HC00009_e + Rtotal2_e + Rtotal3_e + Rtotal_e + 2.0 chsterol_e + glyc_e + 2.0 pchol_cho_e</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
